--- a/Powershell commands.xlsx
+++ b/Powershell commands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\Business\Technical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47981ec3fb4f65b7/Technical/Powershell/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD813A6-1E01-4968-82E2-8C3B0DB9FF41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{BCD813A6-1E01-4968-82E2-8C3B0DB9FF41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D5830C6E-E9F6-446C-B6C1-6C79805CE8FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18420" windowHeight="16200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="82">
   <si>
     <t>Action</t>
   </si>
@@ -256,6 +256,36 @@
   </si>
   <si>
     <t>Get-AzPublicIpAddress | Where-Object Name -Match 'iis2'</t>
+  </si>
+  <si>
+    <t>#Create a service principal without an assignment</t>
+  </si>
+  <si>
+    <t>az ad sp create-for-rbac --skip-assignment</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "displayName": "azure-cli-2021-08-09-14-07-31",</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "appId": "vhg57hj-1e13-4c14-98b3-fkvm57shdgfy",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "name": "vhg57hj-1e13-4c14-98b3-fkvm57shdgfy",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "password": "passwordpasswordpassword",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "tenant": "38475628-fe34-2345-467h-ahsj84759382"</t>
+  </si>
+  <si>
+    <t>#The output will look like the following, appId is the service principal name ID</t>
   </si>
 </sst>
 </file>
@@ -1207,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB71597-F732-4F65-956F-BFA71D77D912}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,62 +1250,112 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>58</v>
+      <c r="A3" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>61</v>
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>63</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1482,7 +1562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62B8A5D-2616-4B6E-A768-7EBD8798C27F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
